--- a/teaching/traditional_assets/database/data/qatar/qatar_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_investments_asset_management.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.222</v>
+        <v>-0.0882</v>
       </c>
       <c r="E2">
-        <v>-0.361</v>
+        <v>-0.127</v>
       </c>
       <c r="G2">
-        <v>0.5462555066079295</v>
+        <v>0.4895833333333334</v>
       </c>
       <c r="H2">
-        <v>0.5462555066079295</v>
+        <v>0.4895833333333334</v>
       </c>
       <c r="I2">
-        <v>0.3312775330396476</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="J2">
-        <v>0.3312775330396476</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="K2">
-        <v>0.737</v>
+        <v>3.44</v>
       </c>
       <c r="L2">
-        <v>0.3246696035242291</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="M2">
-        <v>2.59</v>
+        <v>1.73</v>
       </c>
       <c r="N2">
-        <v>0.04473229706390328</v>
+        <v>0.02255541069100391</v>
       </c>
       <c r="O2">
-        <v>3.514246947082768</v>
+        <v>0.5029069767441861</v>
       </c>
       <c r="P2">
-        <v>2.59</v>
+        <v>1.73</v>
       </c>
       <c r="Q2">
-        <v>0.04473229706390328</v>
+        <v>0.02255541069100391</v>
       </c>
       <c r="R2">
-        <v>3.514246947082768</v>
+        <v>0.5029069767441861</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
       <c r="V2">
-        <v>0.1986183074265976</v>
+        <v>0.1003911342894394</v>
       </c>
       <c r="W2">
-        <v>0.009340937896070975</v>
+        <v>0.04231242312423125</v>
       </c>
       <c r="X2">
-        <v>0.05103661201256234</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y2">
-        <v>-0.04169567411649136</v>
+        <v>0.00384903886978142</v>
       </c>
       <c r="Z2">
-        <v>0.0308843537414966</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="AA2">
-        <v>0.0102312925170068</v>
+        <v>0.04828080229226361</v>
       </c>
       <c r="AB2">
-        <v>0.05103661201256234</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC2">
-        <v>-0.04080531949555553</v>
+        <v>0.009817418037813788</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-11.5</v>
+        <v>-7.7</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.2478448275862069</v>
+        <v>-0.1115942028985507</v>
       </c>
       <c r="AK2">
-        <v>-0.164756446991404</v>
+        <v>-0.0988446726572529</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-15.13157894736842</v>
+        <v>-2.27810650887574</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.222</v>
+        <v>-0.0882</v>
       </c>
       <c r="E3">
-        <v>-0.361</v>
+        <v>-0.127</v>
       </c>
       <c r="G3">
-        <v>0.5462555066079295</v>
+        <v>0.4895833333333334</v>
       </c>
       <c r="H3">
-        <v>0.5462555066079295</v>
+        <v>0.4895833333333334</v>
       </c>
       <c r="I3">
-        <v>0.3312775330396476</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="J3">
-        <v>0.3312775330396476</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="K3">
-        <v>0.737</v>
+        <v>3.44</v>
       </c>
       <c r="L3">
-        <v>0.3246696035242291</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="M3">
-        <v>2.59</v>
+        <v>1.73</v>
       </c>
       <c r="N3">
-        <v>0.04473229706390328</v>
+        <v>0.02255541069100391</v>
       </c>
       <c r="O3">
-        <v>3.514246947082768</v>
+        <v>0.5029069767441861</v>
       </c>
       <c r="P3">
-        <v>2.59</v>
+        <v>1.73</v>
       </c>
       <c r="Q3">
-        <v>0.04473229706390328</v>
+        <v>0.02255541069100391</v>
       </c>
       <c r="R3">
-        <v>3.514246947082768</v>
+        <v>0.5029069767441861</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
       <c r="V3">
-        <v>0.1986183074265976</v>
+        <v>0.1003911342894394</v>
       </c>
       <c r="W3">
-        <v>0.009340937896070975</v>
+        <v>0.04231242312423125</v>
       </c>
       <c r="X3">
-        <v>0.05103661201256234</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y3">
-        <v>-0.04169567411649136</v>
+        <v>0.00384903886978142</v>
       </c>
       <c r="Z3">
-        <v>0.0308843537414966</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="AA3">
-        <v>0.0102312925170068</v>
+        <v>0.04828080229226361</v>
       </c>
       <c r="AB3">
-        <v>0.05103661201256234</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC3">
-        <v>-0.04080531949555553</v>
+        <v>0.009817418037813788</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-11.5</v>
+        <v>-7.7</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2478448275862069</v>
+        <v>-0.1115942028985507</v>
       </c>
       <c r="AK3">
-        <v>-0.164756446991404</v>
+        <v>-0.0988446726572529</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-15.13157894736842</v>
+        <v>-2.27810650887574</v>
       </c>
     </row>
   </sheetData>
